--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -202,15 +202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>422462</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101413</xdr:rowOff>
+      <xdr:colOff>346262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>470087</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>72838</xdr:rowOff>
+      <xdr:colOff>393887</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -219,8 +219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4523815" y="4639795"/>
-          <a:ext cx="1414743" cy="475690"/>
+          <a:off x="4461062" y="4549588"/>
+          <a:ext cx="1419225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -276,8 +276,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4054287" y="1655669"/>
-          <a:ext cx="3436845" cy="1195668"/>
+          <a:off x="4065493" y="1685925"/>
+          <a:ext cx="3448051" cy="1219200"/>
           <a:chOff x="3238499" y="2324100"/>
           <a:chExt cx="3448051" cy="1219200"/>
         </a:xfrm>
@@ -879,6 +879,120 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>找到布局权重最高的一层</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4101353" y="840441"/>
+          <a:ext cx="1414743" cy="475690"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>构建树形关系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="866775"/>
+          <a:ext cx="2667000" cy="482413"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据树形关系计算节点半径的延伸距离</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1177,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -201,16 +201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346262</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91888</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517712</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393887</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63313</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -219,7 +219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4461062" y="4549588"/>
+          <a:off x="3946712" y="3244663"/>
           <a:ext cx="1419225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -259,15 +259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>636493</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655544</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>388844</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -276,7 +276,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4065493" y="1685925"/>
+          <a:off x="3798793" y="695325"/>
           <a:ext cx="3448051" cy="1219200"/>
           <a:chOff x="3238499" y="2324100"/>
           <a:chExt cx="3448051" cy="1219200"/>
@@ -420,16 +420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>308161</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>128867</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>677395</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100293</xdr:rowOff>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -438,8 +438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4409514" y="3490632"/>
-          <a:ext cx="1736352" cy="475690"/>
+          <a:off x="4032436" y="2291042"/>
+          <a:ext cx="1740834" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -602,16 +602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372595</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -620,8 +620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="818029" y="2980765"/>
-          <a:ext cx="1871382" cy="479052"/>
+          <a:off x="5173195" y="5485840"/>
+          <a:ext cx="1875865" cy="489137"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -660,15 +660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>623608</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>661148</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165287</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442073</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -677,8 +677,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="840442" y="3888441"/>
-          <a:ext cx="1871382" cy="479052"/>
+          <a:off x="1309408" y="10042712"/>
+          <a:ext cx="1875865" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -717,15 +717,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>194983</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>661148</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>64435</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -734,8 +734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="840442" y="4796118"/>
-          <a:ext cx="1871382" cy="479052"/>
+          <a:off x="880783" y="4642597"/>
+          <a:ext cx="1875865" cy="489138"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -797,6 +797,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -830,16 +835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93571</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>235326</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>72277</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149601</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="862855" y="6656293"/>
-          <a:ext cx="2106706" cy="475690"/>
+          <a:off x="2836771" y="11483227"/>
+          <a:ext cx="2113430" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -887,26 +892,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="3571875"/>
+          <a:ext cx="2667000" cy="482413"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据树形关系计算节点半径的延伸距离</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>139513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvPr id="29" name="圆角矩形 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4101353" y="840441"/>
-          <a:ext cx="1414743" cy="475690"/>
+          <a:off x="8229600" y="4800600"/>
+          <a:ext cx="1419225" cy="482413"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -944,26 +1006,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149038</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvPr id="45" name="圆角矩形 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="866775"/>
-          <a:ext cx="2667000" cy="482413"/>
+          <a:off x="3943350" y="9639300"/>
+          <a:ext cx="1419225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -992,7 +1054,1037 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>根据树形关系计算节点半径的延伸距离</a:t>
+            <a:t>同一层的节点数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="组合 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5895975" y="6286499"/>
+          <a:ext cx="3667125" cy="5019675"/>
+          <a:chOff x="5895975" y="6286499"/>
+          <a:chExt cx="3667125" cy="5019675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="组合 43"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5895975" y="6286499"/>
+            <a:ext cx="3667125" cy="5019675"/>
+            <a:chOff x="5895975" y="6286499"/>
+            <a:chExt cx="3667125" cy="5019675"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="31" name="组合 30"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5895975" y="6286499"/>
+              <a:ext cx="3667125" cy="5019675"/>
+              <a:chOff x="5343525" y="6076949"/>
+              <a:chExt cx="3667125" cy="5019675"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="8" name="组合 7"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="5343525" y="6076949"/>
+                <a:ext cx="3667125" cy="5019675"/>
+                <a:chOff x="5486400" y="6172199"/>
+                <a:chExt cx="3667125" cy="5019675"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="22" name="组合 21"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="5486400" y="6172199"/>
+                  <a:ext cx="3667125" cy="5019675"/>
+                  <a:chOff x="3238499" y="2324099"/>
+                  <a:chExt cx="3667125" cy="5019675"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="圆角矩形 22"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3238499" y="2324099"/>
+                    <a:ext cx="3667125" cy="5019675"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>节点</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="24" name="圆角矩形 23"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3448050" y="2743200"/>
+                    <a:ext cx="1419225" cy="485775"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>父节点</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="圆角矩形 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5076825" y="2743200"/>
+                    <a:ext cx="1419225" cy="485775"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>子节点集合</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="圆角矩形 25"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5715000" y="7353300"/>
+                  <a:ext cx="1419225" cy="485775"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>所属层级</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="27" name="圆角矩形 26"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5724525" y="8143875"/>
+                  <a:ext cx="1419225" cy="485775"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>左间距</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="28" name="圆角矩形 27"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7381875" y="8124825"/>
+                  <a:ext cx="1419225" cy="485775"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>右间距</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="30" name="圆角矩形 29"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5591175" y="8829675"/>
+                <a:ext cx="1419225" cy="485775"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>角度</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="圆角矩形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6134100" y="9820275"/>
+              <a:ext cx="1419225" cy="485775"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>宽高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="圆角矩形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7820025" y="9039225"/>
+            <a:ext cx="1419225" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>半径</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="圆角矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="9810750"/>
+          <a:ext cx="1419225" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>掠角</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="10572750"/>
+          <a:ext cx="1419225" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>与父级相对位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="圆角矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="12220575"/>
+          <a:ext cx="1685925" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>总宽度最宽的一层</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="圆角矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="12201525"/>
+          <a:ext cx="1895475" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算本层节点掠角</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="圆角矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="12182475"/>
+          <a:ext cx="1895475" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算父子节点掠角</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="组合 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="857252" y="7115176"/>
+          <a:ext cx="3314698" cy="1809750"/>
+          <a:chOff x="962027" y="7229476"/>
+          <a:chExt cx="3314698" cy="1809750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="组合 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="962027" y="7229476"/>
+            <a:ext cx="3314698" cy="1809750"/>
+            <a:chOff x="3238500" y="2324101"/>
+            <a:chExt cx="3432479" cy="1809750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="圆角矩形 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3238500" y="2324101"/>
+              <a:ext cx="3432479" cy="1809750"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>层级</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="圆角矩形 39"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3418460" y="3390900"/>
+              <a:ext cx="1419225" cy="485775"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>半径</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="圆角矩形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2686050" y="8296275"/>
+            <a:ext cx="1370526" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>总弧长</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="圆角矩形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1133475" y="7581900"/>
+            <a:ext cx="1370526" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>层级编号</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="圆角矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="13087350"/>
+          <a:ext cx="1685925" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>总宽度最宽的一层</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1291,9 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -144,16 +144,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -162,7 +162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866775" y="1038225"/>
+          <a:off x="2162175" y="2324100"/>
           <a:ext cx="1104900" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -192,7 +192,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>设置中心点</a:t>
+            <a:t>设置树的顶点</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -201,16 +201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>517712</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>565337</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>129988</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60512</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>108137</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -219,12 +219,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3946712" y="3244663"/>
+          <a:off x="16519712" y="4606738"/>
           <a:ext cx="1419225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -258,16 +263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388844</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474568</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493619</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -276,7 +281,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3798793" y="695325"/>
+          <a:off x="6646768" y="409575"/>
           <a:ext cx="3448051" cy="1219200"/>
           <a:chOff x="3238499" y="2324100"/>
           <a:chExt cx="3448051" cy="1219200"/>
@@ -420,16 +425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>603436</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>286870</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460561</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -438,7 +443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032436" y="2291042"/>
+          <a:off x="5261161" y="2214842"/>
           <a:ext cx="1740834" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -521,16 +526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128306</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -539,8 +544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="840440" y="2017060"/>
-          <a:ext cx="1961031" cy="479052"/>
+          <a:off x="4243106" y="704851"/>
+          <a:ext cx="2357719" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -569,7 +574,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>设置掠角（</a:t>
+            <a:t>设置环形图掠角（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -659,16 +664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>623608</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>442073</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>252133</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>70598</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -677,7 +682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1309408" y="10042712"/>
+          <a:off x="10539133" y="11023787"/>
           <a:ext cx="1875865" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -716,16 +721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>194983</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>13448</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>159685</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128308</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>632573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -734,7 +739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="880783" y="4642597"/>
+          <a:off x="4243108" y="1356472"/>
           <a:ext cx="1875865" cy="489138"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -764,7 +769,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>设置弧长计算比例</a:t>
+            <a:t>设置节点弧长计算方式</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -773,16 +778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179292</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160242</xdr:colOff>
       <xdr:row>34</xdr:row>
+      <xdr:rowOff>84604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>563655</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>27454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -791,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="862851" y="5771029"/>
-          <a:ext cx="2454089" cy="475690"/>
+          <a:off x="15247842" y="5913904"/>
+          <a:ext cx="2460813" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -835,16 +840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>93571</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>167527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>149601</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>138952</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646021</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16251</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>15127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -853,7 +858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2836771" y="11483227"/>
+          <a:off x="8875621" y="13245352"/>
           <a:ext cx="2113430" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -892,16 +897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:rowOff>82363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,7 +915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="3571875"/>
+          <a:off x="4210050" y="3028950"/>
           <a:ext cx="2667000" cy="482413"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -940,7 +945,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>根据树形关系计算节点半径的延伸距离</a:t>
+            <a:t>根据树形关系计算节点所占弧长</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -949,16 +954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139513</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -967,7 +972,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4800600"/>
+          <a:off x="2181225" y="3924300"/>
           <a:ext cx="1419225" cy="482413"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1006,15 +1011,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1024,7 +1029,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="9639300"/>
+          <a:off x="10944225" y="12039600"/>
           <a:ext cx="1419225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1647,16 +1652,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1665,7 +1670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2962275" y="12220575"/>
+          <a:off x="11639550" y="13392150"/>
           <a:ext cx="1685925" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1704,16 +1709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1722,7 +1727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="12201525"/>
+          <a:off x="6229350" y="13268325"/>
           <a:ext cx="1895475" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1818,16 +1823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171452</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266702</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1836,7 +1841,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="857252" y="7115176"/>
+          <a:off x="12611102" y="9791701"/>
           <a:ext cx="3314698" cy="1809750"/>
           <a:chOff x="962027" y="7229476"/>
           <a:chExt cx="3314698" cy="1809750"/>
@@ -2036,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2054,7 +2059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="13087350"/>
+          <a:off x="13306425" y="12201525"/>
           <a:ext cx="1685925" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2085,6 +2090,418 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>总宽度最宽的一层</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="圆角矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1504950"/>
+          <a:ext cx="1104900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>加载数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="圆角矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124074" y="3124200"/>
+          <a:ext cx="1457325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>vertexs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>edges</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="圆角矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="5648325"/>
+          <a:ext cx="1457325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建层级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="圆角矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4791075"/>
+          <a:ext cx="1457325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>无关数据处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="6515100"/>
+          <a:ext cx="1457325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算层级半径</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="圆角矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="7381875"/>
+          <a:ext cx="1457325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算节点位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="圆角矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="800100"/>
+          <a:ext cx="1162050" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>初始参数设置</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -98,6 +98,804 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="组合 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4743449"/>
+          <a:ext cx="1724026" cy="7762875"/>
+          <a:chOff x="13096875" y="4743449"/>
+          <a:chExt cx="1724026" cy="7762875"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="697" name="组合 696"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13096875" y="4743449"/>
+            <a:ext cx="1724026" cy="7762875"/>
+            <a:chOff x="13096875" y="4743449"/>
+            <a:chExt cx="1724026" cy="7762875"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="249" name="组合 248"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13096875" y="4743449"/>
+              <a:ext cx="1724026" cy="7762875"/>
+              <a:chOff x="8259536" y="4823731"/>
+              <a:chExt cx="1713140" cy="8005466"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="114" name="组合 113"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="8259536" y="4823731"/>
+                <a:ext cx="1713140" cy="8005466"/>
+                <a:chOff x="8410574" y="4781549"/>
+                <a:chExt cx="2685209" cy="10436981"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="36" name="组合 35"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8410574" y="4781549"/>
+                  <a:ext cx="2685209" cy="10436981"/>
+                  <a:chOff x="5886449" y="5838824"/>
+                  <a:chExt cx="2685209" cy="10436981"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="47" name="组合 46"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="5886449" y="5838824"/>
+                    <a:ext cx="2685209" cy="10436981"/>
+                    <a:chOff x="5886449" y="5838824"/>
+                    <a:chExt cx="2685209" cy="10436981"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="8" name="组合 7"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5886449" y="5838824"/>
+                      <a:ext cx="2685209" cy="10436981"/>
+                      <a:chOff x="5476874" y="5724524"/>
+                      <a:chExt cx="2685209" cy="10436981"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="22" name="组合 21"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="5476874" y="5724524"/>
+                        <a:ext cx="2685209" cy="10436981"/>
+                        <a:chOff x="3228973" y="1876424"/>
+                        <a:chExt cx="2685209" cy="10436981"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="3228973" y="1876424"/>
+                          <a:ext cx="2685209" cy="10436981"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="roundRect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>Vertex(</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>顶点</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>)</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="3533305" y="4722654"/>
+                          <a:ext cx="1138458" cy="410129"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="roundRect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                          <a:spAutoFit/>
+                        </a:bodyPr>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="ctr"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>父</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>Vertex</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="25" name="圆角矩形 24"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="3598609" y="5606275"/>
+                          <a:ext cx="1580029" cy="410129"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="roundRect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                          <a:spAutoFit/>
+                        </a:bodyPr>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="ctr"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>子</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="lt1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <a:t>Vertex</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>集合</a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="26" name="圆角矩形 25"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5913186" y="10974899"/>
+                        <a:ext cx="1245217" cy="410129"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                        <a:spAutoFit/>
+                      </a:bodyPr>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                          <a:t>所属</a:t>
+                        </a:r>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                          <a:t>Layer</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="46" name="圆角矩形 45"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="6239432" y="6384726"/>
+                      <a:ext cx="774120" cy="397701"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        <a:t>半径</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="48" name="圆角矩形 47"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="6317657" y="14164522"/>
+                    <a:ext cx="774120" cy="397701"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>掠角</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="49" name="圆角矩形 48"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="6245433" y="11950488"/>
+                    <a:ext cx="2237060" cy="410129"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>与父</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>Vertex</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>相对距离</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="111" name="圆角矩形 110"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8762043" y="6105247"/>
+                  <a:ext cx="1211589" cy="410129"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>自身弧长</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="112" name="圆角矩形 111"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8779420" y="6931052"/>
+                  <a:ext cx="1647348" cy="397701"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>树形关系弧长</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="113" name="圆角矩形 112"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8627923" y="9338632"/>
+                  <a:ext cx="1636948" cy="410129"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>子节点总弧长</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="190" name="圆角矩形 189"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477139" y="10116506"/>
+                <a:ext cx="1427225" cy="314581"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>与父</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Vertex</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>相对角度</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="644" name="圆角矩形 643"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13382781" y="11711128"/>
+              <a:ext cx="915810" cy="305048"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>中心点坐标</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="圆角矩形 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13366012" y="10387153"/>
+            <a:ext cx="777896" cy="305048"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>起始角度</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
@@ -424,9 +1222,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>680306</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>98529</xdr:rowOff>
+      <xdr:colOff>566006</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>146154</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2056538" cy="305048"/>
     <xdr:sp macro="" textlink="">
@@ -436,7 +1234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680306" y="13985979"/>
+          <a:off x="566006" y="13347804"/>
           <a:ext cx="2056538" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -590,7 +1388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1182179" y="7533150"/>
+          <a:off x="4611179" y="7533150"/>
           <a:ext cx="1753167" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -741,8 +1539,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>164386</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133906</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>124381</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050994" cy="305048"/>
     <xdr:sp macro="" textlink="">
@@ -752,7 +1550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1535986" y="9220756"/>
+          <a:off x="4964986" y="8696881"/>
           <a:ext cx="1050994" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -850,10 +1648,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16287</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>43059</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597312</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>81159</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1194787" cy="305048"/>
     <xdr:sp macro="" textlink="">
@@ -863,7 +1661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="702087" y="14616309"/>
+          <a:off x="597312" y="13968609"/>
           <a:ext cx="1194787" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1000,10 +1798,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17131</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>98527</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607681</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>41377</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482373" cy="305048"/>
     <xdr:sp macro="" textlink="">
@@ -1013,7 +1811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="702931" y="13300177"/>
+          <a:off x="607681" y="14614627"/>
           <a:ext cx="1482373" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1057,76 +1855,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>603340</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12482</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1565096" cy="305048"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="圆角矩形 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1289140" y="8413532"/>
-          <a:ext cx="1565096" cy="305048"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vertex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的真实弧长</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1386,22 +2114,22 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12482</xdr:rowOff>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>124381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="225" name="直接箭头连接符 224"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="149" idx="0"/>
+          <a:endCxn id="62" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2058763" y="7838198"/>
-          <a:ext cx="12925" cy="575334"/>
+          <a:off x="5487763" y="7838198"/>
+          <a:ext cx="2720" cy="858683"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1430,65 +2158,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4083</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>146080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="228" name="直接箭头连接符 227"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="149" idx="2"/>
-          <a:endCxn id="62" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2061483" y="8718580"/>
-          <a:ext cx="10205" cy="502176"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>96054</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4083</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1500,182 +2178,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5486400" y="9525804"/>
-          <a:ext cx="4083" cy="465919"/>
+          <a:off x="5486400" y="9001929"/>
+          <a:ext cx="4083" cy="694520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>522776</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158202</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7325022" cy="825431"/>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="曲线连接符 136"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6009176" y="6844752"/>
-          <a:ext cx="7325022" cy="825431"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111036</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>55866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>340302</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>165006</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="曲线连接符 164"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="149" idx="3"/>
-          <a:endCxn id="113" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6283236" y="8285466"/>
-          <a:ext cx="7087266" cy="280590"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>522776</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>262070</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>154958</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="曲线连接符 173"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6009176" y="6844752"/>
-          <a:ext cx="7283094" cy="168206"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1889,50 +2398,6 @@
                 </xdr:txBody>
               </xdr:sp>
             </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="53" name="圆角矩形 52"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1373485" y="10202364"/>
-                  <a:ext cx="643710" cy="426170"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                    <a:t>弧长</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="54" name="圆角矩形 53"/>
@@ -2790,122 +3255,6 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>574355</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>292334</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51221</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="曲线连接符 130"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="73" idx="3"/>
-          <a:endCxn id="111" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6060755" y="5149944"/>
-          <a:ext cx="7261779" cy="730577"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>578437</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>293306</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>153885</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="曲线连接符 127"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="72" idx="3"/>
-          <a:endCxn id="46" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6064837" y="4421961"/>
-          <a:ext cx="7258669" cy="875424"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>574355</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171090</xdr:rowOff>
     </xdr:from>
@@ -3087,64 +3436,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111036</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>292334</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>165005</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="474" name="曲线连接符 473"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="1"/>
-          <a:endCxn id="149" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6283236" y="5880520"/>
-          <a:ext cx="7039298" cy="2685535"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>439408</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -3154,7 +3445,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3167,7 +3458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5925808" y="3667249"/>
-          <a:ext cx="8033080" cy="1076201"/>
+          <a:ext cx="8033080" cy="1076200"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -3344,26 +3635,26 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="525" name="组合 524"/>
+        <xdr:cNvPr id="79" name="组合 78"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4581525" y="9991723"/>
-          <a:ext cx="1809750" cy="4400551"/>
-          <a:chOff x="2743200" y="11144248"/>
-          <a:chExt cx="1809750" cy="4400551"/>
+          <a:off x="4581525" y="9696449"/>
+          <a:ext cx="1809750" cy="3409952"/>
+          <a:chOff x="4610100" y="9982199"/>
+          <a:chExt cx="1809750" cy="3409952"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3373,8 +3664,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2743200" y="11144248"/>
-            <a:ext cx="1809750" cy="4400551"/>
+            <a:off x="4610100" y="9982199"/>
+            <a:ext cx="1809750" cy="3409952"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -3435,7 +3726,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3240429" y="11515725"/>
+            <a:off x="5078754" y="10363200"/>
             <a:ext cx="799486" cy="305048"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3460,7 +3751,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -3484,7 +3775,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2848601" y="12172950"/>
+            <a:off x="4686926" y="11020425"/>
             <a:ext cx="1593387" cy="305048"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3509,7 +3800,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -3564,7 +3855,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3032995" y="12887325"/>
+            <a:off x="4871320" y="11734800"/>
             <a:ext cx="1223350" cy="305048"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3589,7 +3880,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -3632,7 +3923,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2966579" y="14277975"/>
+            <a:off x="4795379" y="12677775"/>
             <a:ext cx="1367143" cy="305048"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3657,7 +3948,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -3689,83 +3980,15 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="521" name="圆角矩形 520"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3038475" y="13554075"/>
-            <a:ext cx="1223350" cy="305048"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>计算</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>Layer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>的弧长</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>391840</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57274</xdr:rowOff>
+      <xdr:colOff>363265</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -3783,8 +4006,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5878240" y="10515724"/>
-          <a:ext cx="8113986" cy="2619251"/>
+          <a:off x="5849665" y="10229974"/>
+          <a:ext cx="8142561" cy="2905001"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -3819,67 +4042,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>108113</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57177</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>346807</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28699</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="526" name="曲线连接符 525"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="516" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6280313" y="8801127"/>
-          <a:ext cx="7096694" cy="2371822"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108113</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28699</xdr:rowOff>
+      <xdr:colOff>79538</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -3897,8 +4062,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280313" y="11172949"/>
-          <a:ext cx="7287703" cy="3091035"/>
+          <a:off x="6251738" y="10887199"/>
+          <a:ext cx="7316278" cy="3376785"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3935,9 +4100,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>608270</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>57274</xdr:rowOff>
+      <xdr:colOff>579695</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -3955,8 +4120,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6094670" y="11887324"/>
-          <a:ext cx="7638379" cy="2948160"/>
+          <a:off x="6066095" y="11601574"/>
+          <a:ext cx="7666954" cy="3233910"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3993,183 +4158,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>613750</xdr:colOff>
+      <xdr:colOff>647547</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>38224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>48990</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>165935</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="537" name="曲线连接符 536"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="521" idx="3"/>
-          <a:endCxn id="53" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6100150" y="12554074"/>
-          <a:ext cx="7664840" cy="2870911"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608270</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>153884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>293306</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>57273</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="491" name="曲线连接符 490"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="1"/>
-          <a:endCxn id="519" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6094670" y="5297384"/>
-          <a:ext cx="7228836" cy="6589939"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>613750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>55866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>340302</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>38224</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="494" name="曲线连接符 493"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="1"/>
-          <a:endCxn id="521" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6100150" y="8285466"/>
-          <a:ext cx="7270352" cy="4268608"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685647</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>76324</xdr:rowOff>
+      <xdr:rowOff>28699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -4187,8 +4178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172047" y="13277974"/>
-          <a:ext cx="7181169" cy="2719560"/>
+          <a:off x="6133947" y="12544549"/>
+          <a:ext cx="7219269" cy="3452985"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4225,9 +4216,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>685647</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>76324</xdr:rowOff>
+      <xdr:colOff>647547</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -4245,8 +4236,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172047" y="13277974"/>
-          <a:ext cx="7214953" cy="3224385"/>
+          <a:off x="6133947" y="12544549"/>
+          <a:ext cx="7253053" cy="3957810"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4284,8 +4275,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68882</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>55945</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>94045</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1223350" cy="305048"/>
     <xdr:sp macro="" textlink="">
@@ -4295,7 +4286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4869482" y="13943395"/>
+          <a:off x="4869482" y="14324395"/>
           <a:ext cx="1223350" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4345,15 +4336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>677897</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38348</xdr:rowOff>
+      <xdr:colOff>649322</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>683020</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>654445</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4365,7 +4356,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5478497" y="10668248"/>
+          <a:off x="5449922" y="10382498"/>
           <a:ext cx="5123" cy="352177"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4395,15 +4386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>682395</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9773</xdr:rowOff>
+      <xdr:colOff>653820</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>683020</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>654445</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4415,7 +4406,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5482995" y="11325473"/>
+          <a:off x="5454420" y="11039723"/>
           <a:ext cx="625" cy="409327"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4445,28 +4436,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>682395</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38348</xdr:rowOff>
+      <xdr:colOff>649776</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>653820</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="570" name="直接箭头连接符 569"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="519" idx="2"/>
-          <a:endCxn id="521" idx="0"/>
+          <a:endCxn id="520" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5482995" y="12039848"/>
-          <a:ext cx="5480" cy="361702"/>
+        <a:xfrm flipH="1">
+          <a:off x="5450376" y="11754098"/>
+          <a:ext cx="4044" cy="637927"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4495,167 +4486,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2075</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>19298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2076</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="574" name="直接箭头连接符 573"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="521" idx="2"/>
-          <a:endCxn id="520" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5488475" y="12706598"/>
-          <a:ext cx="1" cy="418852"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>680557</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>57398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2076</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>55945</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="577" name="直接箭头连接符 576"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="520" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5481157" y="13430498"/>
-          <a:ext cx="7319" cy="512897"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>606432</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>48990</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>165935</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="614" name="曲线连接符 613"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="53" idx="1"/>
-          <a:endCxn id="10" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6092832" y="14095919"/>
-          <a:ext cx="7672158" cy="1329066"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>606433</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37020</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -4673,8 +4506,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6092833" y="14095920"/>
-          <a:ext cx="7640217" cy="739565"/>
+          <a:off x="6092833" y="14476920"/>
+          <a:ext cx="7640217" cy="358565"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4711,15 +4544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>127904</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>79601</xdr:rowOff>
+      <xdr:colOff>32654</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68882</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37019</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>22451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4730,9 +4563,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2185304" y="13452701"/>
-          <a:ext cx="2684178" cy="643218"/>
+        <a:xfrm flipV="1">
+          <a:off x="2090054" y="14476919"/>
+          <a:ext cx="2779428" cy="290232"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4770,8 +4603,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>606432</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37020</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -4789,8 +4622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6092832" y="14095920"/>
-          <a:ext cx="7260384" cy="1901615"/>
+          <a:off x="6092832" y="14476920"/>
+          <a:ext cx="7260384" cy="1520615"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4827,28 +4660,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>679444</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37019</xdr:rowOff>
+      <xdr:colOff>565144</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68882</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>79603</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222919</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="635" name="曲线连接符 634"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
+          <a:endCxn id="185" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2736844" y="14095919"/>
-          <a:ext cx="2132638" cy="42584"/>
+        <a:xfrm>
+          <a:off x="2622544" y="13500328"/>
+          <a:ext cx="1029375" cy="263421"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4886,8 +4719,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>606432</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37019</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -4905,8 +4738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6092832" y="14095919"/>
-          <a:ext cx="7635276" cy="2948316"/>
+          <a:off x="6092832" y="14476919"/>
+          <a:ext cx="7635276" cy="2567316"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4940,812 +4773,14 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="697" name="组合 696"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="13096875" y="4743450"/>
-          <a:ext cx="1724026" cy="7353300"/>
-          <a:chOff x="13096875" y="4743450"/>
-          <a:chExt cx="1724026" cy="7353300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="249" name="组合 248"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13096875" y="4743450"/>
-            <a:ext cx="1724026" cy="7353300"/>
-            <a:chOff x="8259536" y="4823732"/>
-            <a:chExt cx="1713140" cy="7583091"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="114" name="组合 113"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="8259536" y="4823732"/>
-              <a:ext cx="1713140" cy="7583091"/>
-              <a:chOff x="8410574" y="4781550"/>
-              <a:chExt cx="2685209" cy="9886317"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="36" name="组合 35"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="8410574" y="4781550"/>
-                <a:ext cx="2685209" cy="9886317"/>
-                <a:chOff x="5886449" y="5838825"/>
-                <a:chExt cx="2685209" cy="9886317"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="47" name="组合 46"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="5886449" y="5838825"/>
-                  <a:ext cx="2685209" cy="9886317"/>
-                  <a:chOff x="5886449" y="5838825"/>
-                  <a:chExt cx="2685209" cy="9886317"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="31" name="组合 30"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5886449" y="5838825"/>
-                    <a:ext cx="2685209" cy="9886317"/>
-                    <a:chOff x="5333999" y="5629275"/>
-                    <a:chExt cx="2685209" cy="9886317"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="8" name="组合 7"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="5333999" y="5629275"/>
-                      <a:ext cx="2685209" cy="9886317"/>
-                      <a:chOff x="5476874" y="5724525"/>
-                      <a:chExt cx="2685209" cy="9886317"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:grpSp>
-                    <xdr:nvGrpSpPr>
-                      <xdr:cNvPr id="22" name="组合 21"/>
-                      <xdr:cNvGrpSpPr/>
-                    </xdr:nvGrpSpPr>
-                    <xdr:grpSpPr>
-                      <a:xfrm>
-                        <a:off x="5476874" y="5724525"/>
-                        <a:ext cx="2685209" cy="9886317"/>
-                        <a:chOff x="3228973" y="1876425"/>
-                        <a:chExt cx="2685209" cy="9886317"/>
-                      </a:xfrm>
-                    </xdr:grpSpPr>
-                    <xdr:sp macro="" textlink="">
-                      <xdr:nvSpPr>
-                        <xdr:cNvPr id="23" name="圆角矩形 22"/>
-                        <xdr:cNvSpPr/>
-                      </xdr:nvSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="3228973" y="1876425"/>
-                          <a:ext cx="2685209" cy="9886317"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="roundRect">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="2">
-                          <a:schemeClr val="accent1">
-                            <a:shade val="50000"/>
-                          </a:schemeClr>
-                        </a:lnRef>
-                        <a:fillRef idx="1">
-                          <a:schemeClr val="accent1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="accent1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="lt1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                      <xdr:txBody>
-                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:pPr algn="l"/>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                            </a:rPr>
-                            <a:t>Vertex(</a:t>
-                          </a:r>
-                          <a:r>
-                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                            </a:rPr>
-                            <a:t>顶点</a:t>
-                          </a:r>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                            </a:rPr>
-                            <a:t>)</a:t>
-                          </a:r>
-                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                          </a:endParaRPr>
-                        </a:p>
-                      </xdr:txBody>
-                    </xdr:sp>
-                    <xdr:sp macro="" textlink="">
-                      <xdr:nvSpPr>
-                        <xdr:cNvPr id="24" name="圆角矩形 23"/>
-                        <xdr:cNvSpPr/>
-                      </xdr:nvSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="3533305" y="4722654"/>
-                          <a:ext cx="1138458" cy="410129"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="roundRect">
-                          <a:avLst/>
-                        </a:prstGeom>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="2">
-                          <a:schemeClr val="accent1">
-                            <a:shade val="50000"/>
-                          </a:schemeClr>
-                        </a:lnRef>
-                        <a:fillRef idx="1">
-                          <a:schemeClr val="accent1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="accent1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="lt1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                      <xdr:txBody>
-                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                          <a:spAutoFit/>
-                        </a:bodyPr>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:pPr algn="ctr"/>
-                          <a:r>
-                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                            <a:t>父</a:t>
-                          </a:r>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                            <a:t>Vertex</a:t>
-                          </a:r>
-                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                        </a:p>
-                      </xdr:txBody>
-                    </xdr:sp>
-                    <xdr:sp macro="" textlink="">
-                      <xdr:nvSpPr>
-                        <xdr:cNvPr id="25" name="圆角矩形 24"/>
-                        <xdr:cNvSpPr/>
-                      </xdr:nvSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="3598609" y="5606275"/>
-                          <a:ext cx="1580029" cy="410129"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="roundRect">
-                          <a:avLst/>
-                        </a:prstGeom>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="2">
-                          <a:schemeClr val="accent1">
-                            <a:shade val="50000"/>
-                          </a:schemeClr>
-                        </a:lnRef>
-                        <a:fillRef idx="1">
-                          <a:schemeClr val="accent1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="accent1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="lt1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                      <xdr:txBody>
-                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                          <a:spAutoFit/>
-                        </a:bodyPr>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:pPr algn="ctr"/>
-                          <a:r>
-                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                            <a:t>子</a:t>
-                          </a:r>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                              <a:solidFill>
-                                <a:schemeClr val="lt1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <a:t>Vertex</a:t>
-                          </a:r>
-                          <a:r>
-                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                            <a:t>集合</a:t>
-                          </a:r>
-                        </a:p>
-                      </xdr:txBody>
-                    </xdr:sp>
-                  </xdr:grpSp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="26" name="圆角矩形 25"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="5913186" y="10974899"/>
-                        <a:ext cx="1245217" cy="410129"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="roundRect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                        <a:spAutoFit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                          <a:t>所属</a:t>
-                        </a:r>
-                        <a:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                          <a:t>Layer</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="30" name="圆角矩形 29"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="5672218" y="14000298"/>
-                      <a:ext cx="1426395" cy="410129"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="roundRect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent1">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                        <a:t>中心店角度</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="46" name="圆角矩形 45"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="6239432" y="6384726"/>
-                    <a:ext cx="774120" cy="397701"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="roundRect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                      <a:t>半径</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="48" name="圆角矩形 47"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="6273151" y="13472992"/>
-                  <a:ext cx="774120" cy="397701"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                    <a:t>掠角</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="49" name="圆角矩形 48"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="6245433" y="11950488"/>
-                  <a:ext cx="2237060" cy="410129"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                    <a:t>与父</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>Vertex</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                    <a:t>相对距离</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="圆角矩形 110"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8762043" y="6105247"/>
-                <a:ext cx="1211589" cy="410129"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>自身弧长</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="圆角矩形 111"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8779420" y="6931052"/>
-                <a:ext cx="1647348" cy="397701"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>树形关系弧长</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="圆角矩形 112"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8836754" y="9344846"/>
-                <a:ext cx="1219288" cy="397701"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>真实弧长</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="190" name="圆角矩形 189"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8477139" y="10116506"/>
-              <a:ext cx="1427225" cy="314581"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>与父</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Vertex</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>相对角度</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="644" name="圆角矩形 643"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13354206" y="11501578"/>
-            <a:ext cx="915810" cy="305048"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>中心点坐标</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>48395</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>140710</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1292501" cy="305048"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517159</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>150235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1707524" cy="305048"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="645" name="圆角矩形 644"/>
@@ -5753,533 +4788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848995" y="14885410"/>
-          <a:ext cx="1292501" cy="305048"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Vertex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的掠角</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>185529</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="869293" cy="305048"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="646" name="圆角矩形 645"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2928729" y="2400299"/>
-          <a:ext cx="869293" cy="305048"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>中心</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Vertex</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>369022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152523</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="647" name="曲线连接符 646"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="646" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3798022" y="2537051"/>
-          <a:ext cx="1116878" cy="15772"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>620175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>162049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="650" name="曲线连接符 649"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="646" idx="2"/>
-          <a:endCxn id="688" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2575926" y="8644648"/>
-          <a:ext cx="13230102" cy="1351499"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655096</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>121785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>12108</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>70686</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="660" name="曲线连接符 659"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="1"/>
-          <a:endCxn id="645" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6141496" y="15037935"/>
-          <a:ext cx="7586612" cy="2006301"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655096</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>55866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>340302</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>121784</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="667" name="曲线连接符 666"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="1"/>
-          <a:endCxn id="645" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6141496" y="8285466"/>
-          <a:ext cx="7229006" cy="6752468"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655097</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>346808</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>121784</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="673" name="曲线连接符 672"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
-          <a:endCxn id="645" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6141497" y="8801126"/>
-          <a:ext cx="7235511" cy="6236808"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8846</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>140710</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="680" name="直接箭头连接符 679"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="514" idx="2"/>
-          <a:endCxn id="645" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="14392274"/>
-          <a:ext cx="8846" cy="493136"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1707524" cy="305048"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="688" name="圆角矩形 687"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="15782925"/>
-          <a:ext cx="1707524" cy="305048"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Vertex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的中心点角度</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1707524" cy="305048"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="689" name="圆角矩形 688"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="16468725"/>
+          <a:off x="4631959" y="15066385"/>
           <a:ext cx="1707524" cy="305048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6326,31 +4835,1866 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61835</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1116682" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="646" name="圆角矩形 645"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2805035" y="2400299"/>
+          <a:ext cx="1116682" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中心</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>250199</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>111085</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492718</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314955</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>162049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="696" name="曲线连接符 695"/>
+        <xdr:cNvPr id="647" name="曲线连接符 646"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="646" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3921718" y="2537051"/>
+          <a:ext cx="993183" cy="15772"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605966</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222919</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="650" name="曲线连接符 649"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="2"/>
+          <a:endCxn id="185" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1257133" y="8854696"/>
+          <a:ext cx="9515351" cy="302753"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167284</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12109</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>70685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="660" name="曲线连接符 659"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="645" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6339484" y="15218909"/>
+          <a:ext cx="7388625" cy="1825326"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167283</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346807</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="673" name="曲线连接符 672"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="645" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6339483" y="8801125"/>
+          <a:ext cx="7037524" cy="6417783"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>684353</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="680" name="直接箭头连接符 679"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="514" idx="2"/>
+          <a:endCxn id="185" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5484953" y="13106401"/>
+          <a:ext cx="1447" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3494</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338580" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="689" name="圆角矩形 688"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4804094" y="15868650"/>
+          <a:ext cx="1338580" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>更新视图节点位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522776</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158202</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7325022" cy="825431"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="曲线连接符 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6009176" y="6844752"/>
+          <a:ext cx="7325022" cy="825431"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192146</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>141874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206223</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="曲线连接符 164"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6364346" y="7685674"/>
+          <a:ext cx="6872077" cy="599792"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522776</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>262070</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="曲线连接符 173"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6009176" y="6844752"/>
+          <a:ext cx="7283094" cy="168206"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574355</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292334</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="曲线连接符 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060755" y="5149944"/>
+          <a:ext cx="7261779" cy="730577"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>293306</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="曲线连接符 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064837" y="4421961"/>
+          <a:ext cx="7258669" cy="875424"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579696</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>293307</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114423</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="491" name="曲线连接符 490"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="519" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6066096" y="5297384"/>
+          <a:ext cx="7257411" cy="6304189"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167283</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206223</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="667" name="曲线连接符 666"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="1"/>
+          <a:endCxn id="645" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6339483" y="8285465"/>
+          <a:ext cx="6896940" cy="6933444"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79538</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346807</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="526" name="曲线连接符 525"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="516" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6251738" y="8801126"/>
+          <a:ext cx="7125269" cy="2086073"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171319</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="869293" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="圆角矩形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914519" y="3943350"/>
+          <a:ext cx="869293" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中心</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255914</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="曲线连接符 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="646" idx="2"/>
+          <a:endCxn id="333" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3728994" y="2339728"/>
+          <a:ext cx="961902" cy="1693139"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255916</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="曲线连接符 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="333" idx="1"/>
+          <a:endCxn id="122" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3783813" y="3667248"/>
+          <a:ext cx="1272703" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222919</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3666068" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="圆角矩形 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3651919" y="13611225"/>
+          <a:ext cx="3666068" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>从内层开始，向外逐层计算每个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的起始角度和掠角</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459987</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>81227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335812</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="曲线连接符 202"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="3"/>
+          <a:endCxn id="146" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7317987" y="10539677"/>
+          <a:ext cx="6048025" cy="3224072"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459987</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>111084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>343530</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="曲线连接符 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7317987" y="11083884"/>
+          <a:ext cx="6055743" cy="2679865"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459987</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206223</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="曲线连接符 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="1"/>
+          <a:endCxn id="185" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7317987" y="8285465"/>
+          <a:ext cx="5918436" cy="5478284"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459988</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292335</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="曲线连接符 213"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="185" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7317988" y="5880519"/>
+          <a:ext cx="6004547" cy="7883229"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192146</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>126382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>303998</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>141874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="曲线连接符 219"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6364346" y="7670182"/>
+          <a:ext cx="6969852" cy="15492"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680557</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>684353</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>94045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直接箭头连接符 233"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5481157" y="13916273"/>
+          <a:ext cx="3796" cy="408122"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>420499</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222919</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>62233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="曲线连接符 273"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="185" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1792099" y="13763749"/>
+          <a:ext cx="1859820" cy="357384"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167284</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292335</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="曲线连接符 278"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="645" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6339484" y="5880519"/>
+          <a:ext cx="6983051" cy="9338389"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167284</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>81227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335813</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="282" name="曲线连接符 281"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="146" idx="1"/>
+          <a:endCxn id="645" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6339484" y="10539677"/>
+          <a:ext cx="7026529" cy="4679232"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167284</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>111083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>343531</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="曲线连接符 284"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="1"/>
-          <a:endCxn id="688" idx="3"/>
+          <a:endCxn id="645" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6422399" y="10569535"/>
-          <a:ext cx="6922756" cy="5365914"/>
+          <a:off x="6339484" y="11083883"/>
+          <a:ext cx="7034247" cy="4135025"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167283</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352581</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="曲线连接符 295"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="645" idx="3"/>
+          <a:endCxn id="644" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6339483" y="11863652"/>
+          <a:ext cx="7043298" cy="3355257"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680557</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685121</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>150235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="直接箭头连接符 301"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="645" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5481157" y="14629443"/>
+          <a:ext cx="4564" cy="436942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672784</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>112383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685121</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="305" name="直接箭头连接符 304"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="645" idx="2"/>
+          <a:endCxn id="689" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5473384" y="15371433"/>
+          <a:ext cx="12337" cy="497217"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66673</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157582</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="曲线连接符 311"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="508" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2809873" y="6844752"/>
+          <a:ext cx="2148309" cy="632374"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6676,7 +7020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -6731,6 +6730,374 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214415</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050994" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1586015" y="685800"/>
+          <a:ext cx="1050994" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建布局网络</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35951</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1436294" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1407551" y="1476375"/>
+          <a:ext cx="1436294" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>寻找所有的根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1565096" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400300" y="2238375"/>
+          <a:ext cx="1565096" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>构建子树</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482374" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1460586" y="3038475"/>
+          <a:ext cx="1482374" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为每个子树进行布局</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>138573</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510173" y="3771900"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在视图上排列子树</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7020,9 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7061,24 +7426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7095,6 +7095,343 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1565096" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295775" y="1076325"/>
+          <a:ext cx="1565096" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>手动设定根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>集合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>455595</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2419667" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3198795" y="1552575"/>
+          <a:ext cx="2419667" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自动设定每个树的第一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为根</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>397551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1849953" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3140751" y="2257425"/>
+          <a:ext cx="1849953" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每个子树都有一个根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>345085</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3902992" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5145685" y="2286000"/>
+          <a:ext cx="3902992" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>两个手动的根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在同一个树时，默认取后一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vertex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为根</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7387,7 +7724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7426,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -7763,9 +7763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -7724,7 +7724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7763,7 +7765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -7432,6 +7432,636 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278556</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="493881" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11251356" y="1028700"/>
+          <a:ext cx="493881" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335706</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="493881" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13365906" y="600075"/>
+          <a:ext cx="493881" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>无向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>421073</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1194788" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13451273" y="2152650"/>
+          <a:ext cx="1194788" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取真实根顶点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311994</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050994" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11284794" y="1619250"/>
+          <a:ext cx="1050994" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定父子关系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>389610</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050994" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13419810" y="1600200"/>
+          <a:ext cx="1050994" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认父子关系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>305716</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="915810" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11278516" y="2181225"/>
+          <a:ext cx="915810" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定根顶点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>308186</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1194787" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11280986" y="2752725"/>
+          <a:ext cx="1194787" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取关系网的树</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1194787" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13439776" y="2762250"/>
+          <a:ext cx="1194787" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取关系网的树</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>318629</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1194788" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13348829" y="1085850"/>
+          <a:ext cx="1194788" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取预设根顶点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7766,7 +8396,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/环形树布局/环形树布局构思.xlsx
+++ b/环形树布局/环形树布局构思.xlsx
@@ -6734,7 +6734,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>214415</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6804,7 +6804,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>35951</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -6879,7 +6879,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>28700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6957,7 +6957,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>88986</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -7027,7 +7027,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>138573</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7097,7 +7097,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>552575</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -7180,7 +7180,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>455595</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7263,7 +7263,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>397551</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -7343,7 +7343,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>345085</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -7434,7 +7434,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>278556</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7504,7 +7504,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>335706</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -7574,7 +7574,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>421073</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -7644,7 +7644,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>311994</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7714,7 +7714,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>389610</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -7784,7 +7784,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>305716</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -7854,7 +7854,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>308186</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7924,7 +7924,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -7994,7 +7994,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>318629</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -8395,9 +8395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
